--- a/upload/paper_computer_network.xlsx
+++ b/upload/paper_computer_network.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\OnlineTest-master\testsystem\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\OnlineTest-master\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEAC1EDB-0AD5-4178-BF37-CC9A79BB45D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BAA170-7A5D-4548-BEE7-01D7CFBF17AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
   <si>
     <t>正确答案</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>多选题</t>
   </si>
   <si>
     <t>问题描述</t>
@@ -503,790 +500,6 @@
   </si>
   <si>
     <t>差错检测</t>
-  </si>
-  <si>
-    <t>一个PPP帧的数据部分（用十六进制写出）是7D 5E FE 27 7D 5D 7D 5D 65 7D 5E。
-试问真正的数据是什么（用十六进制写出）？</t>
-  </si>
-  <si>
-    <t>7E FE 27 7D 5D 65 7D 7E</t>
-  </si>
-  <si>
-    <t>7E FE 27 7D 65 7E</t>
-  </si>
-  <si>
-    <t>7D 5E FE 27 7D 5D 7D 5D 65 7D 5E</t>
-  </si>
-  <si>
-    <t>7E FE 27 7D 7D 65 7E</t>
-  </si>
-  <si>
-    <t>LLC地址</t>
-  </si>
-  <si>
-    <t>MAC地址</t>
-  </si>
-  <si>
-    <t>IP地址</t>
-  </si>
-  <si>
-    <t>IPX地址</t>
-  </si>
-  <si>
-    <t>在以太网中，是根据（ ）来区分不同的设备的</t>
-  </si>
-  <si>
-    <t>CSMA/CD是IEEE802.3所定义的协议标准，它适用于（ ）</t>
-  </si>
-  <si>
-    <t>令牌环网</t>
-  </si>
-  <si>
-    <t>令牌总线网</t>
-  </si>
-  <si>
-    <t>网络互联</t>
-  </si>
-  <si>
-    <t>以太网</t>
-  </si>
-  <si>
-    <t>下列有关集线器的说法正确的是（ ）</t>
-  </si>
-  <si>
-    <t>集线器只能和工作站相连</t>
-  </si>
-  <si>
-    <t>用集线器可将总线型网络转换为星型拓扑网络</t>
-  </si>
-  <si>
-    <t>集线器可以工作在数据链路层</t>
-  </si>
-  <si>
-    <t>集线器不可以扩展以太网</t>
-  </si>
-  <si>
-    <t>10BASE-T中T是指 （ ），10是指（ ）</t>
-  </si>
-  <si>
-    <t>粗同轴电缆 ，10Gb/s</t>
-  </si>
-  <si>
-    <t>细同轴电缆，10Mb/s</t>
-  </si>
-  <si>
-    <t>双绞线，10Mb/s</t>
-  </si>
-  <si>
-    <t>光纤，10Tb/s</t>
-  </si>
-  <si>
-    <t>将传输比特流划分为帧，应属于下列OSI的哪一层处理？（ ）</t>
-  </si>
-  <si>
-    <t>数据链路层</t>
-  </si>
-  <si>
-    <t>传输层</t>
-  </si>
-  <si>
-    <t>网络层</t>
-  </si>
-  <si>
-    <t>PPP协议是哪一层的协议？( )</t>
-  </si>
-  <si>
-    <t>规定，下列 （）为有效的MAC帧</t>
-  </si>
-  <si>
-    <t>帧的长度不是整数个字节</t>
-  </si>
-  <si>
-    <t>用收到的帧检验序列FCS查出有差错</t>
-  </si>
-  <si>
-    <t>帧的MAC数据字段的长度在46－1518字节之间</t>
-  </si>
-  <si>
-    <t>长度在64－1518字节之间的MAC帧</t>
-  </si>
-  <si>
-    <t>一个VLAN可以看作是一个（ ）</t>
-  </si>
-  <si>
-    <t>冲突域</t>
-  </si>
-  <si>
-    <t>以太网媒体访问控制技术CSMA/CD的机制是（ ）</t>
-  </si>
-  <si>
-    <t>争用带宽</t>
-  </si>
-  <si>
-    <t>预约带宽</t>
-  </si>
-  <si>
-    <t>循环使用带宽</t>
-  </si>
-  <si>
-    <t>按优先级分配带宽</t>
-  </si>
-  <si>
-    <t>在局域网中，MAC指的是（ ）</t>
-  </si>
-  <si>
-    <t>逻辑链路控制子层</t>
-  </si>
-  <si>
-    <t>介质访问控制子层</t>
-  </si>
-  <si>
-    <t>下列只能简单再生信号的设备是（ ）</t>
-  </si>
-  <si>
-    <t>网卡</t>
-  </si>
-  <si>
-    <t>网桥</t>
-  </si>
-  <si>
-    <t>中继器</t>
-  </si>
-  <si>
-    <t>路由器</t>
-  </si>
-  <si>
-    <t>VLAN指的是（ ）</t>
-  </si>
-  <si>
-    <t>虚拟局域网</t>
-  </si>
-  <si>
-    <t>共享局域网</t>
-  </si>
-  <si>
-    <t>以上都不对</t>
-  </si>
-  <si>
-    <t>在网络层，实现网络互连的中间设备为（ ）</t>
-  </si>
-  <si>
-    <t>交换机</t>
-  </si>
-  <si>
-    <t>hub</t>
-  </si>
-  <si>
-    <t>某自治系统采用RIP协议，若该自治系统内的路由器R1收到其邻居路由器R2的距离矢量，距离矢量中包含信息&lt;net1,16&gt;，则可能得出的结论是（ ）</t>
-  </si>
-  <si>
-    <t>R2可以经过R1到达net1，跳数为17</t>
-  </si>
-  <si>
-    <t>R1可以到达net1，跳数为16</t>
-  </si>
-  <si>
-    <t>R1可以经过R2到达net1，跳数为17</t>
-  </si>
-  <si>
-    <t>R1不能经过R2到达net1</t>
-  </si>
-  <si>
-    <t>下列关于IP路由器功能的描述中，正确的是</t>
-  </si>
-  <si>
-    <t>运行路由协议，设备路由表</t>
-  </si>
-  <si>
-    <t>检测到拥塞时，合理丢弃IP分组</t>
-  </si>
-  <si>
-    <t>对收到的IP分组头进行差错校验，确保传输的IP分组不丢失</t>
-  </si>
-  <si>
-    <t>根据收到的IP分组的目的IP地址，将其转发至合适的输出线路上</t>
-  </si>
-  <si>
-    <t>ABD</t>
-  </si>
-  <si>
-    <t>某主机IP为180.80.77.55，子网掩码为255.255.252.0，若向该主机所在子网发送广播分组，则目的地址为（ ）</t>
-  </si>
-  <si>
-    <t>180.80.76.0</t>
-  </si>
-  <si>
-    <t>180.80.76.255</t>
-  </si>
-  <si>
-    <t>180.80.77.255</t>
-  </si>
-  <si>
-    <t>180.80.79.255</t>
-  </si>
-  <si>
-    <t>ARP协议的功能是（ ）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 根据IP地址查询MAC地址</t>
-  </si>
-  <si>
-    <t>根据域名查询IP地址</t>
-  </si>
-  <si>
-    <t>根据MAC地址查询IP地址</t>
-  </si>
-  <si>
-    <t>根据IP地址查询域名</t>
-  </si>
-  <si>
-    <t>在TCP/IP体系结构中，直接为ICMP提供服务的协议是（）</t>
-  </si>
-  <si>
-    <t>PPP</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>TCP/IP网络体系结构有（ ）层</t>
-  </si>
-  <si>
-    <t>网络层提供面向连接服务的称为虚电路服务，提供无连接的服务称为（ ）</t>
-  </si>
-  <si>
-    <t>数据报服务</t>
-  </si>
-  <si>
-    <t>分组交互</t>
-  </si>
-  <si>
-    <t>尽最大努力交付的服务</t>
-  </si>
-  <si>
-    <t>可靠传输服务</t>
-  </si>
-  <si>
-    <t>若路由器R因为拥塞丢弃IP分组，则此时R可以向发出该IP分组的源主机发送的ICMP报文类型是（ ）</t>
-  </si>
-  <si>
-    <t>路由重定向</t>
-  </si>
-  <si>
-    <t>目的不可达</t>
-  </si>
-  <si>
-    <t>源抑制</t>
-  </si>
-  <si>
-    <t>超时</t>
-  </si>
-  <si>
-    <t>某网络IP地址为192.168.5.0/24，采用定长子网划分，子网掩码为255.255.255.248，则该网络的最大子网个数、每个子网的最大可分配地址个数分别是（ ）</t>
-  </si>
-  <si>
-    <t>下列网络设备中，能够抑制广播风暴的是（ ）</t>
-  </si>
-  <si>
-    <t>32，8</t>
-  </si>
-  <si>
-    <t>32，6</t>
-  </si>
-  <si>
-    <t>8，32</t>
-  </si>
-  <si>
-    <t>8，30</t>
-  </si>
-  <si>
-    <t>集线器</t>
-  </si>
-  <si>
-    <t>网际协议即为（ ）</t>
-  </si>
-  <si>
-    <t>TCP协议</t>
-  </si>
-  <si>
-    <t>UDP协议</t>
-  </si>
-  <si>
-    <t>ARP协议</t>
-  </si>
-  <si>
-    <t>IP协议</t>
-  </si>
-  <si>
-    <t>224.0.0.5 代表的是（ ）</t>
-  </si>
-  <si>
-    <t>主机地址</t>
-  </si>
-  <si>
-    <t>网络地址</t>
-  </si>
-  <si>
-    <t>组播地址</t>
-  </si>
-  <si>
-    <t>广播地址</t>
-  </si>
-  <si>
-    <t>如果一个C类网络用掩码255.255.255.192划分子网，那么会有（ ） 个可用的子网(子网号不支持全0全1)</t>
-  </si>
-  <si>
-    <t>关于VPN，叙述错误的是（ ）</t>
-  </si>
-  <si>
-    <t>VPN应用于专用网络</t>
-  </si>
-  <si>
-    <t>VPN可用于企业内部专用网络互连</t>
-  </si>
-  <si>
-    <t>VPN可用于内部连接外网</t>
-  </si>
-  <si>
-    <t>开通VPN要向ISP申请并交费</t>
-  </si>
-  <si>
-    <t>以下命令中，（ ）用于测试网络是否连通</t>
-  </si>
-  <si>
-    <t>telnet</t>
-  </si>
-  <si>
-    <t>nslookup</t>
-  </si>
-  <si>
-    <t>ping</t>
-  </si>
-  <si>
-    <t>ftp</t>
-  </si>
-  <si>
-    <t>当一台主机从一个网络移到另一个网络时，以下说法正确的是（ ）</t>
-  </si>
-  <si>
-    <t>必须改变它的IP 地址和MAC 地址</t>
-  </si>
-  <si>
-    <t>必须改变它的IP 地址，但不需改动MAC 地址</t>
-  </si>
-  <si>
-    <t>必须改变它的MAC 地址，但不需改动IP 地址</t>
-  </si>
-  <si>
-    <t>MAC 地址、IP 地址都不需改动</t>
-  </si>
-  <si>
-    <t>一个IP地址包含网络地址与（ ）</t>
-  </si>
-  <si>
-    <t>多址地址</t>
-  </si>
-  <si>
-    <t>子网掩码</t>
-  </si>
-  <si>
-    <t>以下哪一个设置不是上互联网所必须的（ ）</t>
-  </si>
-  <si>
-    <t>工作组</t>
-  </si>
-  <si>
-    <t>网关</t>
-  </si>
-  <si>
-    <t>255.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255.255.0.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">255.255.128.0 </t>
-  </si>
-  <si>
-    <t>255.255.240.0</t>
-  </si>
-  <si>
-    <t>网络地址为140.111.0.0的B类网络，若要切割为9个子网，而且都要连上Internet，请问子网掩码设为（ ）</t>
-  </si>
-  <si>
-    <t>Ipv6 将32 位地址空间扩展到（ ）</t>
-  </si>
-  <si>
-    <t>64位</t>
-  </si>
-  <si>
-    <t>128位</t>
-  </si>
-  <si>
-    <t>256位</t>
-  </si>
-  <si>
-    <t>1024位</t>
-  </si>
-  <si>
-    <t>255.255.255.224可能代表的是（ ）</t>
-  </si>
-  <si>
-    <t>一个B类网络号</t>
-  </si>
-  <si>
-    <t>一个C类网络中的广播</t>
-  </si>
-  <si>
-    <t>一个具有子网的网络掩码</t>
-  </si>
-  <si>
-    <t>以上都不是</t>
-  </si>
-  <si>
-    <t>网络层传输数据基本单元是（ ）</t>
-  </si>
-  <si>
-    <t>比特</t>
-  </si>
-  <si>
-    <t>帧</t>
-  </si>
-  <si>
-    <t>报文</t>
-  </si>
-  <si>
-    <t>IP数据报</t>
-  </si>
-  <si>
-    <t>以下（ ）是网际控制报文协议</t>
-  </si>
-  <si>
-    <t>ICMP</t>
-  </si>
-  <si>
-    <t>ARP</t>
-  </si>
-  <si>
-    <t>IGMP</t>
-  </si>
-  <si>
-    <t>下列关于IP地址的说法中错误的是（ ）</t>
-  </si>
-  <si>
-    <t>一个IP地址只能标识网络中的唯一的一台计算机</t>
-  </si>
-  <si>
-    <t>IP地址一般用点分十进制表示</t>
-  </si>
-  <si>
-    <t>地址205.106.286.36是一个非法的IP地址</t>
-  </si>
-  <si>
-    <t>同一个网络中不能有两台计算机的IP地址相同</t>
-  </si>
-  <si>
-    <t>关于无分类域间路由选择CIDR，正确的说法是（ ）</t>
-  </si>
-  <si>
-    <t>使用CIDR的目的是便于实现虚拟专用网VPN</t>
-  </si>
-  <si>
-    <t>网络前缀的位数也就是地址掩码中0的个数</t>
-  </si>
-  <si>
-    <t>使用CIDR记法与构造超网没有任何联系</t>
-  </si>
-  <si>
-    <t>把网络前缀都相同的连续的IP地址组成一个CIDR地址块</t>
-  </si>
-  <si>
-    <t>ARP 协议的作用是（ ）</t>
-  </si>
-  <si>
-    <t>将端口号映射到IP 地址</t>
-  </si>
-  <si>
-    <t>连接IP 层和TCP 层</t>
-  </si>
-  <si>
-    <t>广播IP 地址</t>
-  </si>
-  <si>
-    <t>将IP 地址映射到第二层地址</t>
-  </si>
-  <si>
-    <t>在分类的IP地址方案中，159.226.181.1是一个（ ）类地址</t>
-  </si>
-  <si>
-    <t>从源向目的传送数据段的过程中，TCP使用什么机制提供流量控制（ ）</t>
-  </si>
-  <si>
-    <t>序列号</t>
-  </si>
-  <si>
-    <t>会话创建</t>
-  </si>
-  <si>
-    <t>窗户大小</t>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>在TCP 协议中，建立连接时需要将（ ）字段中的（ ）标志位位置1</t>
-  </si>
-  <si>
-    <t>保留，ACK</t>
-  </si>
-  <si>
-    <t>保留，SYN</t>
-  </si>
-  <si>
-    <t>偏移，ACK</t>
-  </si>
-  <si>
-    <t>控制，SYN</t>
-  </si>
-  <si>
-    <t>TCP的协议数据单元被称为（ ）</t>
-  </si>
-  <si>
-    <t>报文段</t>
-  </si>
-  <si>
-    <t>字符</t>
-  </si>
-  <si>
-    <t>TCP使用的流量控制协议是（ ）</t>
-  </si>
-  <si>
-    <t>停等ARQ协议</t>
-  </si>
-  <si>
-    <t>选择重传ARQ协议</t>
-  </si>
-  <si>
-    <t>后退N帧ARQ协议</t>
-  </si>
-  <si>
-    <t>可变大小的滑动窗口协议</t>
-  </si>
-  <si>
-    <t>传输层可以通过（ ）标识不同的应用</t>
-  </si>
-  <si>
-    <t>物理地址</t>
-  </si>
-  <si>
-    <t>端口号</t>
-  </si>
-  <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>三次握手方法用于（ ）</t>
-  </si>
-  <si>
-    <t>传输层连接的建立</t>
-  </si>
-  <si>
-    <t>数据链路层的流量控制</t>
-  </si>
-  <si>
-    <t>传输层的重复检测</t>
-  </si>
-  <si>
-    <t>传输层的流量控制</t>
-  </si>
-  <si>
-    <t>DNS能够提供（ ）服务</t>
-  </si>
-  <si>
-    <t>IP和域名的解析</t>
-  </si>
-  <si>
-    <t>IP和MAC间地址转换</t>
-  </si>
-  <si>
-    <t>主机甲和主机乙已建立一个TCP连接，主机甲向主机乙发送了两个连续的TCP段，分别包括300字节和500字节的有效载荷，第一个段的序列号为200，主机乙正确接收到两个段后，发送给主机甲的确认序列号是（ ）</t>
-  </si>
-  <si>
-    <t>主机甲向主机乙发送一个（SYN=1，seq=11 220）的TCP段，期望与主机乙建立TCP连接，若主机乙接受该连接请求，则主机乙向主机甲发送的正确TCP段可能是（ ）</t>
-  </si>
-  <si>
-    <t>(SYN=0，ACK=0，seq=11 221，ack=11 221)</t>
-  </si>
-  <si>
-    <t>(SYN=1，ACK=1，seq=11 220，ack=11 220)</t>
-  </si>
-  <si>
-    <t>(SYN=1，ACK=1，seq=11 221，ack=11 221)</t>
-  </si>
-  <si>
-    <t>(SYN=0，ACK=0，seq=11 220，ack=11 220)</t>
-  </si>
-  <si>
-    <t>主机甲和主机乙之间已建立了一个TCP连接，TCP最大段长度为1000字节。若主机甲的当前拥塞窗口为4000字节，在主机甲向主机乙连续发送两个最大段后，成功收到主机乙发送的对第一个段的确认段，确认段中通告的接收窗口大小为2000字节，则此时主机甲还可以向主机乙发送的最大字节数是（ ）</t>
-  </si>
-  <si>
-    <t>依据香农公式，信道的极限信息传输速率与（ ）有关</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>信道带宽</t>
-  </si>
-  <si>
-    <t>信道中的信噪比</t>
-  </si>
-  <si>
-    <t>处理时延</t>
-  </si>
-  <si>
-    <t>以下属于信道复用技术的是（ ）</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>FDM</t>
-  </si>
-  <si>
-    <t>WDM</t>
-  </si>
-  <si>
-    <t>CDMA</t>
-  </si>
-  <si>
-    <t>XDFY</t>
-  </si>
-  <si>
-    <t>以下属于用于接入网的技术的是（ ）</t>
-  </si>
-  <si>
-    <t>ADSL</t>
-  </si>
-  <si>
-    <t>HFC</t>
-  </si>
-  <si>
-    <t>FTTX</t>
-  </si>
-  <si>
-    <t>WWW</t>
-  </si>
-  <si>
-    <t>以下（）是专用地址</t>
-  </si>
-  <si>
-    <t>10.0.0.6</t>
-  </si>
-  <si>
-    <t>192.168.0.5</t>
-  </si>
-  <si>
-    <t>172.16.20.32</t>
-  </si>
-  <si>
-    <t>210.44.64.66</t>
-  </si>
-  <si>
-    <t>填空题</t>
-  </si>
-  <si>
-    <t>1983年（ ）协议成为ARPANET上的标准协议，人们把1983年作为因特网的诞生时间</t>
-  </si>
-  <si>
-    <t>TCP/IP协议</t>
-  </si>
-  <si>
-    <t>开放系统互连参考模型（OSI/RM）把网络通信的工作分为7层，它们分别是物理层、（ ）、网络层、传输层、会话层、表示层和应用层</t>
-  </si>
-  <si>
-    <t>C/S方式</t>
-  </si>
-  <si>
-    <t>在网络边缘的端系统之间的通信方式通常可划分为两大类：（ ）和P2P方式</t>
-  </si>
-  <si>
-    <t>为实现网络中的数据交换而建立的规则、标准或约定称为（ ）</t>
-  </si>
-  <si>
-    <t>网络协议</t>
-  </si>
-  <si>
-    <t>在数据链路层，数据的传送单位是（ ）</t>
-  </si>
-  <si>
-    <t>RIP协议是属于距离矢量路由选择算法，OSPF协议被称为（ ）</t>
-  </si>
-  <si>
-    <t>链路状态算法</t>
-  </si>
-  <si>
-    <t>RIP协议限制了网络的规模，它能使用的最大距离为（ ）</t>
-  </si>
-  <si>
-    <t>在局域网中，硬件地址，即物理地址，又称为（ ）</t>
-  </si>
-  <si>
-    <t>在TCP/IP网络中，TCP协议工作在传输层，FTP协议工作在（ ）</t>
-  </si>
-  <si>
-    <t>在TCP中，连接的建立采用（ ）的方法</t>
-  </si>
-  <si>
-    <t>三次握手</t>
-  </si>
-  <si>
-    <t>四次挥手</t>
-  </si>
-  <si>
-    <t>在TCP中，连接的断开采用（ ）的方法</t>
-  </si>
-  <si>
-    <t>在 OSI 层次体系中，实际的通信是在（ ）实体之间进行的</t>
-  </si>
-  <si>
-    <t>B类地址</t>
-  </si>
-  <si>
-    <t>根据IP地址的分类，128.10.0.0是(  )</t>
-  </si>
-  <si>
-    <t>建立连接</t>
-  </si>
-  <si>
-    <t>在虚电路服务中，任何传输开始前，要先（ ）</t>
-  </si>
-  <si>
-    <t>当数据报在物理网络中进行传输时，IP地址被转换成（ ）</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>互联网上的每一个网页都有一个独立的地址，这些地址简称为（）</t>
-  </si>
-  <si>
-    <t>一个网吧将其所有的计算机连成网络，这网络属于是（）</t>
-  </si>
-  <si>
-    <t>局域网</t>
-  </si>
-  <si>
-    <t>当网络中的两台主机要进行通信时，必须知道双方各自的（ ）地址</t>
-  </si>
-  <si>
-    <t>FTP协议在运输层使用（ ）协议</t>
   </si>
 </sst>
 </file>
@@ -2752,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV287"/>
+  <dimension ref="A1:IV212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2769,7 +1982,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="241" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2789,10 +2002,10 @@
     </row>
     <row r="2" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -2813,10 +2026,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="3"/>
@@ -2827,28 +2040,28 @@
     </row>
     <row r="3" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -2861,7 +2074,7 @@
     </row>
     <row r="4" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2870,19 +2083,19 @@
         <v>7</v>
       </c>
       <c r="D4" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -2895,28 +2108,28 @@
     </row>
     <row r="5" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2929,28 +2142,28 @@
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2963,28 +2176,28 @@
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2997,28 +2210,28 @@
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -3031,28 +2244,28 @@
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -3065,28 +2278,28 @@
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3099,7 +2312,7 @@
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -3108,19 +2321,19 @@
         <v>7</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3133,28 +2346,28 @@
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3167,28 +2380,28 @@
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3201,7 +2414,7 @@
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
@@ -3210,19 +2423,19 @@
         <v>7</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -3235,28 +2448,28 @@
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3269,28 +2482,28 @@
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3303,28 +2516,28 @@
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -3337,28 +2550,28 @@
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -3371,28 +2584,28 @@
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -3405,28 +2618,28 @@
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -3439,28 +2652,28 @@
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -3473,28 +2686,28 @@
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -3506,30 +2719,14 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3540,30 +2737,14 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3574,30 +2755,14 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -3608,30 +2773,14 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>132</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -3642,30 +2791,14 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -3676,30 +2809,14 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -3710,30 +2827,14 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -3744,30 +2845,14 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3778,30 +2863,14 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -3812,30 +2881,14 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -3846,30 +2899,14 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3880,30 +2917,14 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -3914,30 +2935,14 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3948,30 +2953,14 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3982,30 +2971,14 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>174</v>
-      </c>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -4016,30 +2989,14 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -4050,30 +3007,14 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -4084,30 +3025,14 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>195</v>
-      </c>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -4118,30 +3043,14 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8">
-        <v>4</v>
-      </c>
-      <c r="F41" s="7">
-        <v>5</v>
-      </c>
-      <c r="G41" s="7">
-        <v>6</v>
-      </c>
-      <c r="H41" s="7">
-        <v>7</v>
-      </c>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -4152,30 +3061,14 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -4186,30 +3079,14 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>206</v>
-      </c>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -4220,30 +3097,14 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -4254,30 +3115,14 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -4288,30 +3133,14 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -4322,30 +3151,14 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -4356,30 +3169,14 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8">
-        <v>2</v>
-      </c>
-      <c r="F48" s="7">
-        <v>4</v>
-      </c>
-      <c r="G48" s="7">
-        <v>6</v>
-      </c>
-      <c r="H48" s="7">
-        <v>8</v>
-      </c>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -4390,30 +3187,14 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4424,30 +3205,14 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -4458,30 +3223,14 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>239</v>
-      </c>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -4492,30 +3241,14 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>242</v>
-      </c>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4526,30 +3259,14 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>245</v>
-      </c>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -4560,30 +3277,14 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -4594,30 +3295,14 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -4628,30 +3313,14 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4662,30 +3331,14 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>264</v>
-      </c>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -4696,30 +3349,14 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>193</v>
-      </c>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -4730,30 +3367,14 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>274</v>
-      </c>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -4764,30 +3385,14 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -4798,30 +3403,14 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>284</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -4832,30 +3421,14 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -4866,30 +3439,14 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -4900,30 +3457,14 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="6">
-        <v>1</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>298</v>
-      </c>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -4934,30 +3475,14 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -4968,30 +3493,14 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>303</v>
-      </c>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -5002,30 +3511,14 @@
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>307</v>
-      </c>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -5036,30 +3529,14 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>312</v>
-      </c>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -5070,30 +3547,14 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="6">
-        <v>1</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -5104,30 +3565,14 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="6">
-        <v>1</v>
-      </c>
-      <c r="E70" s="8">
-        <v>500</v>
-      </c>
-      <c r="F70" s="7">
-        <v>700</v>
-      </c>
-      <c r="G70" s="7">
-        <v>800</v>
-      </c>
-      <c r="H70" s="7">
-        <v>1000</v>
-      </c>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -5138,30 +3583,14 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="6">
-        <v>1</v>
-      </c>
-      <c r="E71" s="8">
-        <v>500</v>
-      </c>
-      <c r="F71" s="7">
-        <v>1000</v>
-      </c>
-      <c r="G71" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H71" s="7">
-        <v>4000</v>
-      </c>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -5172,30 +3601,14 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="6">
-        <v>1</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>321</v>
-      </c>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -5206,30 +3619,14 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D73" s="6">
-        <v>2</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>179</v>
-      </c>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -5240,30 +3637,14 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D74" s="6">
-        <v>2</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -5274,30 +3655,14 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D75" s="6">
-        <v>2</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>333</v>
-      </c>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -5308,30 +3673,14 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D76" s="6">
-        <v>2</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>338</v>
-      </c>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -5342,30 +3691,14 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D77" s="6">
-        <v>2</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>343</v>
-      </c>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -5376,18 +3709,10 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D78" s="8">
-        <v>1</v>
-      </c>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -5402,18 +3727,10 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D79" s="8">
-        <v>1</v>
-      </c>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -5428,18 +3745,10 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D80" s="8">
-        <v>1</v>
-      </c>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -5454,18 +3763,10 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D81" s="8">
-        <v>1</v>
-      </c>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -5480,18 +3781,10 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D82" s="8">
-        <v>1</v>
-      </c>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -5506,18 +3799,10 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D83" s="8">
-        <v>1</v>
-      </c>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -5532,18 +3817,10 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C84" s="7">
-        <v>15</v>
-      </c>
-      <c r="D84" s="8">
-        <v>1</v>
-      </c>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -5558,18 +3835,10 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="8">
-        <v>1</v>
-      </c>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -5584,18 +3853,10 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86" s="8">
-        <v>1</v>
-      </c>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -5610,18 +3871,10 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="8">
-        <v>1</v>
-      </c>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -5636,18 +3889,10 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D88" s="8">
-        <v>1</v>
-      </c>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -5662,18 +3907,10 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D89" s="8">
-        <v>1</v>
-      </c>
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
@@ -5688,18 +3925,10 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="8">
-        <v>1</v>
-      </c>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -5714,18 +3943,10 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D91" s="8">
-        <v>1</v>
-      </c>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -5740,18 +3961,10 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="D92" s="8">
-        <v>1</v>
-      </c>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -5766,18 +3979,10 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D93" s="8">
-        <v>1</v>
-      </c>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -5792,18 +3997,10 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D94" s="8">
-        <v>1</v>
-      </c>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -5818,18 +4015,10 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D95" s="8">
-        <v>1</v>
-      </c>
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -5844,18 +4033,10 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D96" s="8">
-        <v>1</v>
-      </c>
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -5870,18 +4051,10 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D97" s="8">
-        <v>1</v>
-      </c>
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -7958,1362 +6131,12 @@
       <c r="H212" s="7"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-      <c r="P212" s="3"/>
-    </row>
-    <row r="213" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="7"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
-    </row>
-    <row r="214" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="7"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="7"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="7"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3"/>
-    </row>
-    <row r="215" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="7"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-      <c r="P215" s="3"/>
-    </row>
-    <row r="216" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="7"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="7"/>
-      <c r="G216" s="7"/>
-      <c r="H216" s="7"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
-      <c r="P216" s="3"/>
-    </row>
-    <row r="217" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="7"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="7"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
-      <c r="P217" s="3"/>
-    </row>
-    <row r="218" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="7"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
-      <c r="P218" s="3"/>
-    </row>
-    <row r="219" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="7"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
-    </row>
-    <row r="220" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="7"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
-      <c r="P220" s="3"/>
-    </row>
-    <row r="221" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="7"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-    </row>
-    <row r="222" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="7"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-    </row>
-    <row r="223" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="7"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
-      <c r="P223" s="3"/>
-    </row>
-    <row r="224" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="7"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
-      <c r="P224" s="3"/>
-    </row>
-    <row r="225" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="7"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
-      <c r="P225" s="3"/>
-    </row>
-    <row r="226" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="7"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
-      <c r="P226" s="3"/>
-    </row>
-    <row r="227" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="7"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
-      <c r="P227" s="3"/>
-    </row>
-    <row r="228" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="7"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
-    </row>
-    <row r="229" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="7"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
-      <c r="P229" s="3"/>
-    </row>
-    <row r="230" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="7"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
-      <c r="O230" s="3"/>
-      <c r="P230" s="3"/>
-    </row>
-    <row r="231" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="7"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
-      <c r="P231" s="3"/>
-    </row>
-    <row r="232" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="7"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
-      <c r="O232" s="3"/>
-      <c r="P232" s="3"/>
-    </row>
-    <row r="233" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="7"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
-      <c r="O233" s="3"/>
-      <c r="P233" s="3"/>
-    </row>
-    <row r="234" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="7"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3"/>
-    </row>
-    <row r="235" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="7"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
-    </row>
-    <row r="236" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="7"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
-      <c r="L236" s="3"/>
-      <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
-      <c r="O236" s="3"/>
-      <c r="P236" s="3"/>
-    </row>
-    <row r="237" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="7"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
-      <c r="L237" s="3"/>
-      <c r="M237" s="3"/>
-      <c r="N237" s="3"/>
-      <c r="O237" s="3"/>
-      <c r="P237" s="3"/>
-    </row>
-    <row r="238" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="7"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-      <c r="O238" s="3"/>
-      <c r="P238" s="3"/>
-    </row>
-    <row r="239" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="7"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3"/>
-      <c r="M239" s="3"/>
-      <c r="N239" s="3"/>
-      <c r="O239" s="3"/>
-      <c r="P239" s="3"/>
-    </row>
-    <row r="240" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="7"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-      <c r="M240" s="3"/>
-      <c r="N240" s="3"/>
-      <c r="O240" s="3"/>
-      <c r="P240" s="3"/>
-    </row>
-    <row r="241" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="7"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3"/>
-      <c r="M241" s="3"/>
-      <c r="N241" s="3"/>
-      <c r="O241" s="3"/>
-      <c r="P241" s="3"/>
-    </row>
-    <row r="242" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="7"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
-      <c r="L242" s="3"/>
-      <c r="M242" s="3"/>
-      <c r="N242" s="3"/>
-      <c r="O242" s="3"/>
-      <c r="P242" s="3"/>
-    </row>
-    <row r="243" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="7"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
-      <c r="N243" s="3"/>
-      <c r="O243" s="3"/>
-      <c r="P243" s="3"/>
-    </row>
-    <row r="244" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="7"/>
-      <c r="B244" s="8"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
-      <c r="L244" s="3"/>
-      <c r="M244" s="3"/>
-      <c r="N244" s="3"/>
-      <c r="O244" s="3"/>
-      <c r="P244" s="3"/>
-    </row>
-    <row r="245" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="7"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
-      <c r="L245" s="3"/>
-      <c r="M245" s="3"/>
-      <c r="N245" s="3"/>
-      <c r="O245" s="3"/>
-      <c r="P245" s="3"/>
-    </row>
-    <row r="246" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="7"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="7"/>
-      <c r="G246" s="7"/>
-      <c r="H246" s="7"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
-      <c r="M246" s="3"/>
-      <c r="N246" s="3"/>
-      <c r="O246" s="3"/>
-      <c r="P246" s="3"/>
-    </row>
-    <row r="247" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="7"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
-      <c r="O247" s="3"/>
-      <c r="P247" s="3"/>
-    </row>
-    <row r="248" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="7"/>
-      <c r="B248" s="8"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3"/>
-      <c r="M248" s="3"/>
-      <c r="N248" s="3"/>
-      <c r="O248" s="3"/>
-      <c r="P248" s="3"/>
-    </row>
-    <row r="249" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="7"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="7"/>
-      <c r="G249" s="7"/>
-      <c r="H249" s="7"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3"/>
-      <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
-      <c r="O249" s="3"/>
-      <c r="P249" s="3"/>
-    </row>
-    <row r="250" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="7"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3"/>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3"/>
-      <c r="N250" s="3"/>
-      <c r="O250" s="3"/>
-      <c r="P250" s="3"/>
-    </row>
-    <row r="251" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="7"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3"/>
-      <c r="N251" s="3"/>
-      <c r="O251" s="3"/>
-      <c r="P251" s="3"/>
-    </row>
-    <row r="252" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="7"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="7"/>
-      <c r="G252" s="7"/>
-      <c r="H252" s="7"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
-      <c r="K252" s="3"/>
-      <c r="L252" s="3"/>
-      <c r="M252" s="3"/>
-      <c r="N252" s="3"/>
-      <c r="O252" s="3"/>
-      <c r="P252" s="3"/>
-    </row>
-    <row r="253" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="7"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="H253" s="7"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
-      <c r="N253" s="3"/>
-      <c r="O253" s="3"/>
-      <c r="P253" s="3"/>
-    </row>
-    <row r="254" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="7"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="7"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="7"/>
-      <c r="G254" s="7"/>
-      <c r="H254" s="7"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
-      <c r="P254" s="3"/>
-    </row>
-    <row r="255" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="7"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="7"/>
-      <c r="G255" s="7"/>
-      <c r="H255" s="7"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
-      <c r="K255" s="3"/>
-      <c r="L255" s="3"/>
-      <c r="M255" s="3"/>
-      <c r="N255" s="3"/>
-      <c r="O255" s="3"/>
-      <c r="P255" s="3"/>
-    </row>
-    <row r="256" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="7"/>
-      <c r="B256" s="8"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="7"/>
-      <c r="G256" s="7"/>
-      <c r="H256" s="7"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
-      <c r="L256" s="3"/>
-      <c r="M256" s="3"/>
-      <c r="N256" s="3"/>
-      <c r="O256" s="3"/>
-      <c r="P256" s="3"/>
-    </row>
-    <row r="257" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="7"/>
-      <c r="B257" s="8"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
-      <c r="F257" s="7"/>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
-      <c r="L257" s="3"/>
-      <c r="M257" s="3"/>
-      <c r="N257" s="3"/>
-      <c r="O257" s="3"/>
-      <c r="P257" s="3"/>
-    </row>
-    <row r="258" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="7"/>
-      <c r="B258" s="8"/>
-      <c r="C258" s="7"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="7"/>
-      <c r="G258" s="7"/>
-      <c r="H258" s="7"/>
-      <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
-      <c r="K258" s="3"/>
-      <c r="L258" s="3"/>
-      <c r="M258" s="3"/>
-      <c r="N258" s="3"/>
-      <c r="O258" s="3"/>
-      <c r="P258" s="3"/>
-    </row>
-    <row r="259" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="7"/>
-      <c r="B259" s="8"/>
-      <c r="C259" s="7"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="7"/>
-      <c r="G259" s="7"/>
-      <c r="H259" s="7"/>
-      <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
-      <c r="K259" s="3"/>
-      <c r="L259" s="3"/>
-      <c r="M259" s="3"/>
-      <c r="N259" s="3"/>
-      <c r="O259" s="3"/>
-      <c r="P259" s="3"/>
-    </row>
-    <row r="260" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="7"/>
-      <c r="B260" s="8"/>
-      <c r="C260" s="7"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="7"/>
-      <c r="G260" s="7"/>
-      <c r="H260" s="7"/>
-      <c r="I260" s="3"/>
-      <c r="J260" s="3"/>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3"/>
-      <c r="M260" s="3"/>
-      <c r="N260" s="3"/>
-      <c r="O260" s="3"/>
-      <c r="P260" s="3"/>
-    </row>
-    <row r="261" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="7"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="7"/>
-      <c r="G261" s="7"/>
-      <c r="H261" s="7"/>
-      <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
-      <c r="L261" s="3"/>
-      <c r="M261" s="3"/>
-      <c r="N261" s="3"/>
-      <c r="O261" s="3"/>
-      <c r="P261" s="3"/>
-    </row>
-    <row r="262" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="7"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="7"/>
-      <c r="G262" s="7"/>
-      <c r="H262" s="7"/>
-      <c r="I262" s="3"/>
-      <c r="J262" s="3"/>
-      <c r="K262" s="3"/>
-      <c r="L262" s="3"/>
-      <c r="M262" s="3"/>
-      <c r="N262" s="3"/>
-      <c r="O262" s="3"/>
-      <c r="P262" s="3"/>
-    </row>
-    <row r="263" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="7"/>
-      <c r="B263" s="8"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="7"/>
-      <c r="H263" s="7"/>
-      <c r="I263" s="3"/>
-      <c r="J263" s="3"/>
-      <c r="K263" s="3"/>
-      <c r="L263" s="3"/>
-      <c r="M263" s="3"/>
-      <c r="N263" s="3"/>
-      <c r="O263" s="3"/>
-      <c r="P263" s="3"/>
-    </row>
-    <row r="264" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="7"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="7"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="7"/>
-      <c r="G264" s="7"/>
-      <c r="H264" s="7"/>
-      <c r="I264" s="3"/>
-      <c r="J264" s="3"/>
-      <c r="K264" s="3"/>
-      <c r="L264" s="3"/>
-      <c r="M264" s="3"/>
-      <c r="N264" s="3"/>
-      <c r="O264" s="3"/>
-      <c r="P264" s="3"/>
-    </row>
-    <row r="265" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="7"/>
-      <c r="B265" s="8"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="7"/>
-      <c r="G265" s="7"/>
-      <c r="H265" s="7"/>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
-      <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
-      <c r="N265" s="3"/>
-      <c r="O265" s="3"/>
-      <c r="P265" s="3"/>
-    </row>
-    <row r="266" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="7"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="7"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="7"/>
-      <c r="G266" s="7"/>
-      <c r="H266" s="7"/>
-      <c r="I266" s="3"/>
-      <c r="J266" s="3"/>
-      <c r="K266" s="3"/>
-      <c r="L266" s="3"/>
-      <c r="M266" s="3"/>
-      <c r="N266" s="3"/>
-      <c r="O266" s="3"/>
-      <c r="P266" s="3"/>
-    </row>
-    <row r="267" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="7"/>
-      <c r="B267" s="8"/>
-      <c r="C267" s="7"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="7"/>
-      <c r="G267" s="7"/>
-      <c r="H267" s="7"/>
-      <c r="I267" s="3"/>
-      <c r="J267" s="3"/>
-      <c r="K267" s="3"/>
-      <c r="L267" s="3"/>
-      <c r="M267" s="3"/>
-      <c r="N267" s="3"/>
-      <c r="O267" s="3"/>
-      <c r="P267" s="3"/>
-    </row>
-    <row r="268" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="7"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="7"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="7"/>
-      <c r="H268" s="7"/>
-      <c r="I268" s="3"/>
-      <c r="J268" s="3"/>
-      <c r="K268" s="3"/>
-      <c r="L268" s="3"/>
-      <c r="M268" s="3"/>
-      <c r="N268" s="3"/>
-      <c r="O268" s="3"/>
-      <c r="P268" s="3"/>
-    </row>
-    <row r="269" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="7"/>
-      <c r="B269" s="8"/>
-      <c r="C269" s="7"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="7"/>
-      <c r="H269" s="7"/>
-      <c r="I269" s="3"/>
-      <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
-      <c r="L269" s="3"/>
-      <c r="M269" s="3"/>
-      <c r="N269" s="3"/>
-      <c r="O269" s="3"/>
-      <c r="P269" s="3"/>
-    </row>
-    <row r="270" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="7"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="7"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="7"/>
-      <c r="H270" s="7"/>
-      <c r="I270" s="3"/>
-      <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
-      <c r="L270" s="3"/>
-      <c r="M270" s="3"/>
-      <c r="N270" s="3"/>
-      <c r="O270" s="3"/>
-      <c r="P270" s="3"/>
-    </row>
-    <row r="271" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="7"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="7"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="7"/>
-      <c r="G271" s="7"/>
-      <c r="H271" s="7"/>
-      <c r="I271" s="3"/>
-      <c r="J271" s="3"/>
-      <c r="K271" s="3"/>
-      <c r="L271" s="3"/>
-      <c r="M271" s="3"/>
-      <c r="N271" s="3"/>
-      <c r="O271" s="3"/>
-      <c r="P271" s="3"/>
-    </row>
-    <row r="272" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="7"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="7"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
-      <c r="H272" s="7"/>
-      <c r="I272" s="3"/>
-      <c r="J272" s="3"/>
-      <c r="K272" s="3"/>
-      <c r="L272" s="3"/>
-      <c r="M272" s="3"/>
-      <c r="N272" s="3"/>
-      <c r="O272" s="3"/>
-      <c r="P272" s="3"/>
-    </row>
-    <row r="273" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="7"/>
-      <c r="B273" s="8"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7"/>
-      <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
-      <c r="K273" s="3"/>
-      <c r="L273" s="3"/>
-      <c r="M273" s="3"/>
-      <c r="N273" s="3"/>
-      <c r="O273" s="3"/>
-      <c r="P273" s="3"/>
-    </row>
-    <row r="274" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="7"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="7"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="7"/>
-      <c r="G274" s="7"/>
-      <c r="H274" s="7"/>
-      <c r="I274" s="3"/>
-      <c r="J274" s="3"/>
-      <c r="K274" s="3"/>
-      <c r="L274" s="3"/>
-      <c r="M274" s="3"/>
-      <c r="N274" s="3"/>
-      <c r="O274" s="3"/>
-      <c r="P274" s="3"/>
-    </row>
-    <row r="275" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="7"/>
-      <c r="B275" s="8"/>
-      <c r="C275" s="7"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="7"/>
-      <c r="H275" s="7"/>
-      <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
-      <c r="L275" s="3"/>
-      <c r="M275" s="3"/>
-      <c r="N275" s="3"/>
-      <c r="O275" s="3"/>
-      <c r="P275" s="3"/>
-    </row>
-    <row r="276" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="7"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="7"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="7"/>
-      <c r="H276" s="7"/>
-      <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
-      <c r="K276" s="3"/>
-      <c r="L276" s="3"/>
-      <c r="M276" s="3"/>
-      <c r="N276" s="3"/>
-      <c r="O276" s="3"/>
-      <c r="P276" s="3"/>
-    </row>
-    <row r="277" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A277" s="7"/>
-      <c r="B277" s="8"/>
-      <c r="C277" s="7"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="7"/>
-      <c r="G277" s="7"/>
-      <c r="H277" s="7"/>
-      <c r="I277" s="3"/>
-      <c r="J277" s="3"/>
-      <c r="K277" s="3"/>
-      <c r="L277" s="3"/>
-      <c r="M277" s="3"/>
-      <c r="N277" s="3"/>
-      <c r="O277" s="3"/>
-      <c r="P277" s="3"/>
-    </row>
-    <row r="278" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="7"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="7"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
-      <c r="F278" s="7"/>
-      <c r="G278" s="7"/>
-      <c r="H278" s="7"/>
-      <c r="I278" s="3"/>
-      <c r="J278" s="3"/>
-      <c r="K278" s="3"/>
-      <c r="L278" s="3"/>
-      <c r="M278" s="3"/>
-      <c r="N278" s="3"/>
-      <c r="O278" s="3"/>
-      <c r="P278" s="3"/>
-    </row>
-    <row r="279" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="7"/>
-      <c r="B279" s="8"/>
-      <c r="C279" s="7"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
-      <c r="F279" s="7"/>
-      <c r="G279" s="7"/>
-      <c r="H279" s="7"/>
-      <c r="I279" s="3"/>
-      <c r="J279" s="3"/>
-      <c r="K279" s="3"/>
-      <c r="L279" s="3"/>
-      <c r="M279" s="3"/>
-      <c r="N279" s="3"/>
-      <c r="O279" s="3"/>
-      <c r="P279" s="3"/>
-    </row>
-    <row r="280" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="7"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="7"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
-      <c r="F280" s="7"/>
-      <c r="G280" s="7"/>
-      <c r="H280" s="7"/>
-      <c r="I280" s="3"/>
-      <c r="J280" s="3"/>
-      <c r="K280" s="3"/>
-      <c r="L280" s="3"/>
-      <c r="M280" s="3"/>
-      <c r="N280" s="3"/>
-      <c r="O280" s="3"/>
-      <c r="P280" s="3"/>
-    </row>
-    <row r="281" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="7"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="7"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
-      <c r="F281" s="7"/>
-      <c r="G281" s="7"/>
-      <c r="H281" s="7"/>
-      <c r="I281" s="3"/>
-      <c r="J281" s="3"/>
-      <c r="K281" s="3"/>
-      <c r="L281" s="3"/>
-      <c r="M281" s="3"/>
-      <c r="N281" s="3"/>
-      <c r="O281" s="3"/>
-      <c r="P281" s="3"/>
-    </row>
-    <row r="282" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="7"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="7"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-      <c r="F282" s="7"/>
-      <c r="G282" s="7"/>
-      <c r="H282" s="7"/>
-      <c r="I282" s="3"/>
-      <c r="J282" s="3"/>
-      <c r="K282" s="3"/>
-      <c r="L282" s="3"/>
-      <c r="M282" s="3"/>
-      <c r="N282" s="3"/>
-      <c r="O282" s="3"/>
-      <c r="P282" s="3"/>
-    </row>
-    <row r="283" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="7"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7"/>
-      <c r="I283" s="3"/>
-      <c r="J283" s="3"/>
-      <c r="K283" s="3"/>
-      <c r="L283" s="3"/>
-      <c r="M283" s="3"/>
-      <c r="N283" s="3"/>
-      <c r="O283" s="3"/>
-      <c r="P283" s="3"/>
-    </row>
-    <row r="284" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="7"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
-      <c r="F284" s="7"/>
-      <c r="G284" s="7"/>
-      <c r="H284" s="7"/>
-      <c r="I284" s="3"/>
-      <c r="J284" s="3"/>
-      <c r="K284" s="3"/>
-      <c r="L284" s="3"/>
-      <c r="M284" s="3"/>
-      <c r="N284" s="3"/>
-      <c r="O284" s="3"/>
-      <c r="P284" s="3"/>
-    </row>
-    <row r="285" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="7"/>
-      <c r="B285" s="8"/>
-      <c r="C285" s="7"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
-      <c r="H285" s="7"/>
-      <c r="I285" s="3"/>
-      <c r="J285" s="3"/>
-      <c r="K285" s="3"/>
-      <c r="L285" s="3"/>
-      <c r="M285" s="3"/>
-      <c r="N285" s="3"/>
-      <c r="O285" s="3"/>
-      <c r="P285" s="3"/>
-    </row>
-    <row r="286" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="7"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="7"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="7"/>
-      <c r="G286" s="7"/>
-      <c r="H286" s="7"/>
-      <c r="I286" s="3"/>
-      <c r="J286" s="3"/>
-      <c r="K286" s="3"/>
-      <c r="L286" s="3"/>
-      <c r="M286" s="3"/>
-      <c r="N286" s="3"/>
-      <c r="O286" s="3"/>
-      <c r="P286" s="3"/>
-    </row>
-    <row r="287" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="7"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="7"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="7"/>
-      <c r="H287" s="7"/>
-      <c r="I287" s="3"/>
-      <c r="J287" s="3"/>
-      <c r="K287" s="9"/>
-      <c r="L287" s="10"/>
-      <c r="M287" s="10"/>
-      <c r="N287" s="10"/>
-      <c r="O287" s="10"/>
-      <c r="P287" s="10"/>
+      <c r="K212" s="9"/>
+      <c r="L212" s="10"/>
+      <c r="M212" s="10"/>
+      <c r="N212" s="10"/>
+      <c r="O212" s="10"/>
+      <c r="P212" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
